--- a/名单及图片/名单.xlsx
+++ b/名单及图片/名单.xlsx
@@ -56,12 +56,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +83,135 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -97,142 +226,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -243,187 +236,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,41 +427,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -483,6 +441,48 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,33 +504,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,148 +532,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1045,14 +1038,14 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="22.5" customWidth="1"/>
-    <col min="4" max="4" width="36.25" customWidth="1"/>
+    <col min="4" max="4" width="45.625" customWidth="1"/>
     <col min="5" max="5" width="5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1084,8 +1077,8 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f>$J$1&amp;A2&amp;$J$1&amp;":{"&amp;$J$1&amp;"name"&amp;$J$1&amp;":"&amp;$J$1&amp;B2&amp;$J$1&amp;","&amp;$J$1&amp;"path"&amp;$J$1&amp;":"&amp;$J$1&amp;C2&amp;$J$1&amp;"},"</f>
-        <v>"1":{"name":"姓名1","path":"person.jpg"},</v>
+        <f>"{"&amp;$J$1&amp;"name"&amp;$J$1&amp;":"&amp;$J$1&amp;B2&amp;$J$1&amp;","&amp;$J$1&amp;"path"&amp;$J$1&amp;":"&amp;$J$1&amp;C2&amp;$J$1&amp;"},"</f>
+        <v>{"name":"姓名1","path":"person.jpg"},</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1099,8 +1092,8 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f>$J$1&amp;A3&amp;$J$1&amp;":{"&amp;$J$1&amp;"name"&amp;$J$1&amp;":"&amp;$J$1&amp;B3&amp;$J$1&amp;","&amp;$J$1&amp;"path"&amp;$J$1&amp;":"&amp;$J$1&amp;C3&amp;$J$1&amp;"},"</f>
-        <v>"2":{"name":"姓名2","path":"person1.jpg"},</v>
+        <f>"{"&amp;$J$1&amp;"name"&amp;$J$1&amp;":"&amp;$J$1&amp;B3&amp;$J$1&amp;","&amp;$J$1&amp;"path"&amp;$J$1&amp;":"&amp;$J$1&amp;C3&amp;$J$1&amp;"},"</f>
+        <v>{"name":"姓名2","path":"person1.jpg"},</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1114,8 +1107,8 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f>$J$1&amp;A4&amp;$J$1&amp;":{"&amp;$J$1&amp;"name"&amp;$J$1&amp;":"&amp;$J$1&amp;B4&amp;$J$1&amp;","&amp;$J$1&amp;"path"&amp;$J$1&amp;":"&amp;$J$1&amp;C4&amp;$J$1&amp;"},"</f>
-        <v>"3":{"name":"姓名3","path":"person2.jpg"},</v>
+        <f>"{"&amp;$J$1&amp;"name"&amp;$J$1&amp;":"&amp;$J$1&amp;B4&amp;$J$1&amp;","&amp;$J$1&amp;"path"&amp;$J$1&amp;":"&amp;$J$1&amp;C4&amp;$J$1&amp;"},"</f>
+        <v>{"name":"姓名3","path":"person2.jpg"},</v>
       </c>
     </row>
   </sheetData>

--- a/名单及图片/名单.xlsx
+++ b/名单及图片/名单.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>序号</t>
   </si>
@@ -49,6 +49,75 @@
   </si>
   <si>
     <t>person2.jpg</t>
+  </si>
+  <si>
+    <t>姓名4</t>
+  </si>
+  <si>
+    <t>姓名5</t>
+  </si>
+  <si>
+    <t>person3.jpg</t>
+  </si>
+  <si>
+    <t>姓名6</t>
+  </si>
+  <si>
+    <t>person4.jpg</t>
+  </si>
+  <si>
+    <t>姓名7</t>
+  </si>
+  <si>
+    <t>姓名8</t>
+  </si>
+  <si>
+    <t>person5.jpg</t>
+  </si>
+  <si>
+    <t>姓名9</t>
+  </si>
+  <si>
+    <t>person6.jpg</t>
+  </si>
+  <si>
+    <t>姓名10</t>
+  </si>
+  <si>
+    <t>姓名11</t>
+  </si>
+  <si>
+    <t>person7.jpg</t>
+  </si>
+  <si>
+    <t>姓名12</t>
+  </si>
+  <si>
+    <t>person8.jpg</t>
+  </si>
+  <si>
+    <t>姓名13</t>
+  </si>
+  <si>
+    <t>姓名14</t>
+  </si>
+  <si>
+    <t>person9.jpg</t>
+  </si>
+  <si>
+    <t>姓名15</t>
+  </si>
+  <si>
+    <t>person10.jpg</t>
+  </si>
+  <si>
+    <t>姓名16</t>
+  </si>
+  <si>
+    <t>姓名17</t>
+  </si>
+  <si>
+    <t>person11.jpg</t>
   </si>
 </sst>
 </file>
@@ -56,9 +125,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -84,41 +153,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -142,15 +189,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,8 +264,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,7 +274,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,22 +293,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -236,67 +305,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,115 +479,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,6 +496,65 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -448,17 +576,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,56 +596,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -535,10 +604,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -547,133 +616,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1035,13 +1104,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D4" sqref="D4:D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="22.5" customWidth="1"/>
@@ -1110,6 +1179,249 @@
         <f>"{"&amp;$J$1&amp;"name"&amp;$J$1&amp;":"&amp;$J$1&amp;B4&amp;$J$1&amp;","&amp;$J$1&amp;"path"&amp;$J$1&amp;":"&amp;$J$1&amp;C4&amp;$J$1&amp;"},"</f>
         <v>{"name":"姓名3","path":"person2.jpg"},</v>
       </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f t="shared" ref="D5:D18" si="0">"{"&amp;$J$1&amp;"name"&amp;$J$1&amp;":"&amp;$J$1&amp;B5&amp;$J$1&amp;","&amp;$J$1&amp;"path"&amp;$J$1&amp;":"&amp;$J$1&amp;C5&amp;$J$1&amp;"},"</f>
+        <v>{"name":"姓名4","path":"person.jpg"},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"name":"姓名5","path":"person3.jpg"},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"name":"姓名6","path":"person4.jpg"},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"name":"姓名7","path":"person.jpg"},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"name":"姓名8","path":"person5.jpg"},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"name":"姓名9","path":"person6.jpg"},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"name":"姓名10","path":"person.jpg"},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"name":"姓名11","path":"person7.jpg"},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"name":"姓名12","path":"person8.jpg"},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"name":"姓名13","path":"person.jpg"},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"name":"姓名14","path":"person9.jpg"},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"name":"姓名15","path":"person10.jpg"},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"name":"姓名16","path":"person.jpg"},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"name":"姓名17","path":"person11.jpg"},</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/名单及图片/名单.xlsx
+++ b/名单及图片/名单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21240" windowHeight="9675"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -125,10 +125,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -160,6 +160,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -167,9 +174,87 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -181,15 +266,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,94 +289,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,67 +305,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,115 +485,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,11 +499,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,19 +517,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,17 +553,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,6 +585,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -604,145 +604,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1107,7 +1107,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D18"/>
+      <selection activeCell="D2" sqref="D2:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1161,7 +1161,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f>"{"&amp;$J$1&amp;"name"&amp;$J$1&amp;":"&amp;$J$1&amp;B3&amp;$J$1&amp;","&amp;$J$1&amp;"path"&amp;$J$1&amp;":"&amp;$J$1&amp;C3&amp;$J$1&amp;"},"</f>
+        <f t="shared" ref="D3:D18" si="0">"{"&amp;$J$1&amp;"name"&amp;$J$1&amp;":"&amp;$J$1&amp;B3&amp;$J$1&amp;","&amp;$J$1&amp;"path"&amp;$J$1&amp;":"&amp;$J$1&amp;C3&amp;$J$1&amp;"},"</f>
         <v>{"name":"姓名2","path":"person1.jpg"},</v>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f>"{"&amp;$J$1&amp;"name"&amp;$J$1&amp;":"&amp;$J$1&amp;B4&amp;$J$1&amp;","&amp;$J$1&amp;"path"&amp;$J$1&amp;":"&amp;$J$1&amp;C4&amp;$J$1&amp;"},"</f>
+        <f t="shared" si="0"/>
         <v>{"name":"姓名3","path":"person2.jpg"},</v>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f t="shared" ref="D5:D18" si="0">"{"&amp;$J$1&amp;"name"&amp;$J$1&amp;":"&amp;$J$1&amp;B5&amp;$J$1&amp;","&amp;$J$1&amp;"path"&amp;$J$1&amp;":"&amp;$J$1&amp;C5&amp;$J$1&amp;"},"</f>
+        <f t="shared" si="0"/>
         <v>{"name":"姓名4","path":"person.jpg"},</v>
       </c>
     </row>
